--- a/academycity/data/avic/datasets/excel/world_bank/ICT Exports.xlsx
+++ b/academycity/data/avic/datasets/excel/world_bank/ICT Exports.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="449">
   <si>
     <t xml:space="preserve">Country Name</t>
   </si>
@@ -1367,288 +1367,6 @@
   </si>
   <si>
     <t xml:space="preserve">ZWE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa Eastern and Southern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa Western and Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arab World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caribbean small states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Europe and the Baltics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early-demographic dividend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Asia &amp; Pacific</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Asia &amp; Pacific (excluding high income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Asia &amp; Pacific (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euro area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe &amp; Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe &amp; Central Asia (excluding high income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe &amp; Central Asia (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragile and conflict affected situations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavily indebted poor countries (HIPC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBRD only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA &amp; IBRD total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA blend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late-demographic dividend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin America &amp; Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin America &amp; Caribbean (excluding high income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin America &amp; the Caribbean (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Least developed countries: UN classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low &amp; middle income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower middle income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle East &amp; North Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle East &amp; North Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle East &amp; North Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OECD members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other small states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacific island small states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post-demographic dividend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-demographic dividend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Asia (IDA &amp; IBRD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-Saharan Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-Saharan Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper middle income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WLD</t>
   </si>
 </sst>
 </file>
@@ -1832,10 +1550,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H267"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A221" activeCellId="0" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7567,1228 +7285,53 @@
         <v>9480000</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E221" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F221" s="0" t="n">
-        <v>1137485449.20188</v>
-      </c>
-      <c r="G221" s="0" t="n">
-        <v>2068827091.47377</v>
-      </c>
-      <c r="H221" s="0" t="n">
-        <v>1862379164.83734</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E222" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F222" s="0" t="n">
-        <v>539494432.567432</v>
-      </c>
-      <c r="G222" s="0" t="n">
-        <v>1267123019.81698</v>
-      </c>
-      <c r="H222" s="0" t="n">
-        <v>1312760082.31867</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E223" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F223" s="0" t="n">
-        <v>7818992594.31702</v>
-      </c>
-      <c r="G223" s="0" t="n">
-        <v>9029616351.23559</v>
-      </c>
-      <c r="H223" s="0" t="n">
-        <v>10308555485.3046</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E224" s="0" t="n">
-        <v>470122643.679956</v>
-      </c>
-      <c r="F224" s="0" t="n">
-        <v>350560177.60997</v>
-      </c>
-      <c r="G224" s="0" t="n">
-        <v>235686526.206914</v>
-      </c>
-      <c r="H224" s="0" t="n">
-        <v>219685222.892251</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E225" s="0" t="n">
-        <v>1323989418.35498</v>
-      </c>
-      <c r="F225" s="0" t="n">
-        <v>6426212368.44769</v>
-      </c>
-      <c r="G225" s="0" t="n">
-        <v>16526627743.9962</v>
-      </c>
-      <c r="H225" s="0" t="n">
-        <v>28067392712.7761</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E226" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F226" s="0" t="n">
-        <v>54448117177.845</v>
-      </c>
-      <c r="G226" s="0" t="n">
-        <v>106087056390.391</v>
-      </c>
-      <c r="H226" s="0" t="n">
-        <v>128886065399.383</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E227" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F227" s="0" t="n">
-        <v>17439426869.7289</v>
-      </c>
-      <c r="G227" s="0" t="n">
-        <v>48545125453.7642</v>
-      </c>
-      <c r="H227" s="0" t="n">
-        <v>74696753572.6831</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E228" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F228" s="0" t="n">
-        <v>10209591270.7906</v>
-      </c>
-      <c r="G228" s="0" t="n">
-        <v>28464488499.9357</v>
-      </c>
-      <c r="H228" s="0" t="n">
-        <v>40902167638.6176</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E229" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F229" s="0" t="n">
-        <v>10209591270.7906</v>
-      </c>
-      <c r="G229" s="0" t="n">
-        <v>28464488499.9357</v>
-      </c>
-      <c r="H229" s="0" t="n">
-        <v>40902167638.6176</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E230" s="0" t="n">
-        <v>20230452756.797</v>
-      </c>
-      <c r="F230" s="0" t="n">
-        <v>98119881614.4723</v>
-      </c>
-      <c r="G230" s="0" t="n">
-        <v>170691116670.576</v>
-      </c>
-      <c r="H230" s="0" t="n">
-        <v>253857093182.624</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F231" s="0" t="n">
-        <v>148872538329.998</v>
-      </c>
-      <c r="G231" s="0" t="n">
-        <v>264021741196.91</v>
-      </c>
-      <c r="H231" s="0" t="n">
-        <v>363070546315.971</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E232" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F232" s="0" t="n">
-        <v>4651127474.62009</v>
-      </c>
-      <c r="G232" s="0" t="n">
-        <v>11779695327.0174</v>
-      </c>
-      <c r="H232" s="0" t="n">
-        <v>16402095306.0705</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E233" s="0" t="n">
-        <v>1422521830.11367</v>
-      </c>
-      <c r="F233" s="0" t="n">
-        <v>7626748757.28998</v>
-      </c>
-      <c r="G233" s="0" t="n">
-        <v>19573411937.7226</v>
-      </c>
-      <c r="H233" s="0" t="n">
-        <v>30994507138.1853</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E234" s="0" t="n">
-        <v>23012454402.9162</v>
-      </c>
-      <c r="F234" s="0" t="n">
-        <v>114813717744.89</v>
-      </c>
-      <c r="G234" s="0" t="n">
-        <v>205050218950.35</v>
-      </c>
-      <c r="H234" s="0" t="n">
-        <v>296837726110.924</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E235" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F235" s="0" t="n">
-        <v>1537373650.48647</v>
-      </c>
-      <c r="G235" s="0" t="n">
-        <v>4536668006.51607</v>
-      </c>
-      <c r="H235" s="0" t="n">
-        <v>5648377194.60829</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E236" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F236" s="0" t="n">
-        <v>1108623868.38914</v>
-      </c>
-      <c r="G236" s="0" t="n">
-        <v>2249164957.59736</v>
-      </c>
-      <c r="H236" s="0" t="n">
-        <v>2115358512.79341</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E237" s="0" t="n">
-        <v>12452515964.8648</v>
-      </c>
-      <c r="F237" s="0" t="n">
-        <v>63185197021.6593</v>
-      </c>
-      <c r="G237" s="0" t="n">
-        <v>134896238581.156</v>
-      </c>
-      <c r="H237" s="0" t="n">
-        <v>171521908086.378</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C238" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E238" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F238" s="0" t="n">
-        <v>65819127608.9865</v>
-      </c>
-      <c r="G238" s="0" t="n">
-        <v>141452478615.503</v>
-      </c>
-      <c r="H238" s="0" t="n">
-        <v>177998798758.484</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E239" s="0" t="n">
-        <v>349215156.83872</v>
-      </c>
-      <c r="F239" s="0" t="n">
-        <v>768681242.097931</v>
-      </c>
-      <c r="G239" s="0" t="n">
-        <v>2128522508.28035</v>
-      </c>
-      <c r="H239" s="0" t="n">
-        <v>2323135294.89379</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E240" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F240" s="0" t="n">
-        <v>1865249345.22927</v>
-      </c>
-      <c r="G240" s="0" t="n">
-        <v>4427717526.06645</v>
-      </c>
-      <c r="H240" s="0" t="n">
-        <v>4153755377.21258</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E241" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F241" s="0" t="n">
-        <v>2633930587.3272</v>
-      </c>
-      <c r="G241" s="0" t="n">
-        <v>6556240034.3468</v>
-      </c>
-      <c r="H241" s="0" t="n">
-        <v>6476890672.10637</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C242" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E242" s="0" t="n">
-        <v>4674784179.23866</v>
-      </c>
-      <c r="F242" s="0" t="n">
-        <v>51380389245.8669</v>
-      </c>
-      <c r="G242" s="0" t="n">
-        <v>106439153741.207</v>
-      </c>
-      <c r="H242" s="0" t="n">
-        <v>185263177569.506</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E243" s="0" t="n">
-        <v>3342496201.09122</v>
-      </c>
-      <c r="F243" s="0" t="n">
-        <v>4925391664.3486</v>
-      </c>
-      <c r="G243" s="0" t="n">
-        <v>8476592745.53689</v>
-      </c>
-      <c r="H243" s="0" t="n">
-        <v>11394664755.7043</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E244" s="0" t="n">
-        <v>2781540891.90795</v>
-      </c>
-      <c r="F244" s="0" t="n">
-        <v>4072599355.99774</v>
-      </c>
-      <c r="G244" s="0" t="n">
-        <v>7285984864.5076</v>
-      </c>
-      <c r="H244" s="0" t="n">
-        <v>9581765603.06428</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E245" s="0" t="n">
-        <v>3289726893.82865</v>
-      </c>
-      <c r="F245" s="0" t="n">
-        <v>4891220603.85019</v>
-      </c>
-      <c r="G245" s="0" t="n">
-        <v>8388510761.21742</v>
-      </c>
-      <c r="H245" s="0" t="n">
-        <v>11340220718.2371</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E246" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F246" s="0" t="n">
-        <v>1002393474.4204</v>
-      </c>
-      <c r="G246" s="0" t="n">
-        <v>3009200685.29483</v>
-      </c>
-      <c r="H246" s="0" t="n">
-        <v>2322112329.3512</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E247" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F247" s="0" t="n">
-        <v>62045484911.2135</v>
-      </c>
-      <c r="G247" s="0" t="n">
-        <v>132625793369.754</v>
-      </c>
-      <c r="H247" s="0" t="n">
-        <v>161760772708.448</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C248" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E248" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F248" s="0" t="n">
-        <v>44027308243.6227</v>
-      </c>
-      <c r="G248" s="0" t="n">
-        <v>89396081637.9799</v>
-      </c>
-      <c r="H248" s="0" t="n">
-        <v>103239950948.984</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E249" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F249" s="0" t="n">
-        <v>13912715143.9373</v>
-      </c>
-      <c r="G249" s="0" t="n">
-        <v>24152699374.8207</v>
-      </c>
-      <c r="H249" s="0" t="n">
-        <v>33995978515.9313</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F250" s="0" t="n">
-        <v>2131006170.57384</v>
-      </c>
-      <c r="G250" s="0" t="n">
-        <v>4432430763.39121</v>
-      </c>
-      <c r="H250" s="0" t="n">
-        <v>3980363955.97685</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F251" s="0" t="n">
-        <v>2104075170.57384</v>
-      </c>
-      <c r="G251" s="0" t="n">
-        <v>4350760266.89821</v>
-      </c>
-      <c r="H251" s="0" t="n">
-        <v>3854514545.39612</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E252" s="0" t="n">
-        <v>12063619116.6201</v>
-      </c>
-      <c r="F252" s="0" t="n">
-        <v>61370517913.9219</v>
-      </c>
-      <c r="G252" s="0" t="n">
-        <v>131389314671.015</v>
-      </c>
-      <c r="H252" s="0" t="n">
-        <v>160910388632.406</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E253" s="0" t="n">
-        <v>16214471080.3162</v>
-      </c>
-      <c r="F253" s="0" t="n">
-        <v>27039830168.6881</v>
-      </c>
-      <c r="G253" s="0" t="n">
-        <v>47043191835.6894</v>
-      </c>
-      <c r="H253" s="0" t="n">
-        <v>59864786690.7051</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E254" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F254" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G254" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H254" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E255" s="0" t="n">
-        <v>62752929569.3496</v>
-      </c>
-      <c r="F255" s="0" t="n">
-        <v>181704767826.199</v>
-      </c>
-      <c r="G255" s="0" t="n">
-        <v>323947518389.119</v>
-      </c>
-      <c r="H255" s="0" t="n">
-        <v>441175088114.55</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E256" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F256" s="0" t="n">
-        <v>1414451155.73896</v>
-      </c>
-      <c r="G256" s="0" t="n">
-        <v>2593739328.66592</v>
-      </c>
-      <c r="H256" s="0" t="n">
-        <v>6004893561.39601</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F257" s="0" t="n">
-        <v>42475213.6153214</v>
-      </c>
-      <c r="G257" s="0" t="n">
-        <v>40926837.9680105</v>
-      </c>
-      <c r="H257" s="0" t="n">
-        <v>66708441.816323</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E258" s="0" t="n">
-        <v>57478792680.2561</v>
-      </c>
-      <c r="F258" s="0" t="n">
-        <v>145996472433.287</v>
-      </c>
-      <c r="G258" s="0" t="n">
-        <v>257535667150.923</v>
-      </c>
-      <c r="H258" s="0" t="n">
-        <v>317214391179.122</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E259" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F259" s="0" t="n">
-        <v>1138533200.65316</v>
-      </c>
-      <c r="G259" s="0" t="n">
-        <v>2613326606.02742</v>
-      </c>
-      <c r="H259" s="0" t="n">
-        <v>2363802380.45958</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F260" s="0" t="n">
-        <v>1807486546.96425</v>
-      </c>
-      <c r="G260" s="0" t="n">
-        <v>2870352692.84084</v>
-      </c>
-      <c r="H260" s="0" t="n">
-        <v>6291287226.10458</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E261" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F261" s="0" t="n">
-        <v>39310511924.7126</v>
-      </c>
-      <c r="G261" s="0" t="n">
-        <v>77339357038.4379</v>
-      </c>
-      <c r="H261" s="0" t="n">
-        <v>87732249470.8919</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E262" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F262" s="0" t="n">
-        <v>39310511924.7126</v>
-      </c>
-      <c r="G262" s="0" t="n">
-        <v>77339357038.4378</v>
-      </c>
-      <c r="H262" s="0" t="n">
-        <v>87732249470.8919</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E263" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F263" s="0" t="n">
-        <v>1676979881.76931</v>
-      </c>
-      <c r="G263" s="0" t="n">
-        <v>3335950111.29075</v>
-      </c>
-      <c r="H263" s="0" t="n">
-        <v>3175139247.15601</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C264" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E264" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F264" s="0" t="n">
-        <v>1670648714.51863</v>
-      </c>
-      <c r="G264" s="0" t="n">
-        <v>3323836876.46381</v>
-      </c>
-      <c r="H264" s="0" t="n">
-        <v>3162130733.82721</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E265" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F265" s="0" t="n">
-        <v>1676979881.76931</v>
-      </c>
-      <c r="G265" s="0" t="n">
-        <v>3335950111.29075</v>
-      </c>
-      <c r="H265" s="0" t="n">
-        <v>3175139247.15601</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C266" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E266" s="0" t="n">
-        <v>5591116077.83596</v>
-      </c>
-      <c r="F266" s="0" t="n">
-        <v>17343209670.2992</v>
-      </c>
-      <c r="G266" s="0" t="n">
-        <v>41993233033.0353</v>
-      </c>
-      <c r="H266" s="0" t="n">
-        <v>57670437683.4214</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E267" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F267" s="0" t="n">
-        <v>253177393983.183</v>
-      </c>
-      <c r="G267" s="0" t="n">
-        <v>472914657756.45</v>
-      </c>
-      <c r="H267" s="0" t="n">
-        <v>633930118569.043</v>
-      </c>
-    </row>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
